--- a/src/assets/products/liquid coolers/blizzard 360/data.xlsx
+++ b/src/assets/products/liquid coolers/blizzard 360/data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marketing.LINKWORLD\Desktop\Spec Sheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B208745F-3739-44DD-B161-13E31221190A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="2235" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{0A6E8C2A-5CF9-4F69-8004-9D4F85E8514A}"/>
+    <workbookView xWindow="6756" yWindow="2232" windowWidth="21600" windowHeight="11388" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -19,9 +13,9 @@
     <sheet name="Fan" sheetId="9" r:id="rId4"/>
     <sheet name="Compatibility" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -150,9 +144,6 @@
     <t>1.91 mm-H2O</t>
   </si>
   <si>
-    <t>26.69 dB(A)</t>
-  </si>
-  <si>
     <t>LGA 2066 / 2011-V3 / LGA 2011 / LGA 1366
 LGA 1200 / LGA 115X / LGA 775</t>
   </si>
@@ -160,17 +151,28 @@
     <t>AM4 / AM3+ / AM3 / AM2+
 AM2 / FM2+ / FM2 / FM1</t>
   </si>
+  <si>
+    <t>26.29 dB(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -201,7 +203,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -259,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -311,7 +313,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -505,23 +507,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F276E3DF-8275-48EA-9E9B-6D1971284CC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -538,25 +540,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198A252E-D43A-4BB4-8D30-1389B8FB56CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -564,7 +567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -572,7 +575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -580,7 +583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -588,7 +591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -596,7 +599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -604,7 +607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -612,7 +615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -621,24 +624,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5DC310-093D-4A50-9440-6FE9398682CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -646,7 +650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -655,25 +659,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC19605-2EF1-4918-B3D3-A770C9F6DE67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -681,7 +686,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -689,7 +694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -697,7 +702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -705,7 +710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -713,15 +718,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -729,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -737,7 +742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -746,41 +751,43 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E854AF4-1CC6-443F-A710-26EF5E7E9B1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="45">
       <c r="A1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>